--- a/2022/Samsung/Others/Sure Shot_Incentive Format December'21.xlsx
+++ b/2022/Samsung/Others/Sure Shot_Incentive Format December'21.xlsx
@@ -726,11 +726,12 @@
   <dimension ref="B1:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="4" customWidth="1"/>

--- a/2022/Samsung/Others/Sure Shot_Incentive Format December'21.xlsx
+++ b/2022/Samsung/Others/Sure Shot_Incentive Format December'21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>SL</t>
   </si>
@@ -25,18 +25,9 @@
     <t>RD owner Signature &amp; Seal</t>
   </si>
   <si>
-    <t>RD Owner Name:</t>
-  </si>
-  <si>
-    <t>RD Name:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Signature</t>
   </si>
   <si>
-    <t>TM Name:</t>
-  </si>
-  <si>
     <t>Bkash Number</t>
   </si>
   <si>
@@ -56,13 +47,130 @@
   </si>
   <si>
     <t>Sure Shot Incentive for the month of December'21</t>
+  </si>
+  <si>
+    <t>RD Name:Iffa Trading</t>
+  </si>
+  <si>
+    <t>RD Owner Name: Razia Rumana Talukdar</t>
+  </si>
+  <si>
+    <t>TM Name: Shamim Ahmed</t>
+  </si>
+  <si>
+    <t>RASD000113</t>
+  </si>
+  <si>
+    <t>Rasel Telecom</t>
+  </si>
+  <si>
+    <t>RASD000253</t>
+  </si>
+  <si>
+    <t>Shohan Electronics</t>
+  </si>
+  <si>
+    <t>RASD001406</t>
+  </si>
+  <si>
+    <t>G Store</t>
+  </si>
+  <si>
+    <t>RASD001390</t>
+  </si>
+  <si>
+    <t>Mum Telecom</t>
+  </si>
+  <si>
+    <t>RASD001392</t>
+  </si>
+  <si>
+    <t>Hello Bonpara</t>
+  </si>
+  <si>
+    <t>RASD000244</t>
+  </si>
+  <si>
+    <t>Bhuyan Mobile</t>
+  </si>
+  <si>
+    <t>RASD000251</t>
+  </si>
+  <si>
+    <t>Sonia Cosmatic And Mobile Center</t>
+  </si>
+  <si>
+    <t>RASD001425</t>
+  </si>
+  <si>
+    <t>Ayan Telecom</t>
+  </si>
+  <si>
+    <t>RASD000121</t>
+  </si>
+  <si>
+    <t>M K Telecom</t>
+  </si>
+  <si>
+    <t>RASD000243</t>
+  </si>
+  <si>
+    <t>Sohel Store</t>
+  </si>
+  <si>
+    <t>RASD000255</t>
+  </si>
+  <si>
+    <t>Somobay Bazar</t>
+  </si>
+  <si>
+    <t>RASD000254</t>
+  </si>
+  <si>
+    <t>Multi Technology</t>
+  </si>
+  <si>
+    <t>01711427916</t>
+  </si>
+  <si>
+    <t>01748971798</t>
+  </si>
+  <si>
+    <t>01719461935</t>
+  </si>
+  <si>
+    <t>01712469447</t>
+  </si>
+  <si>
+    <t>01758035002</t>
+  </si>
+  <si>
+    <t>01713707021</t>
+  </si>
+  <si>
+    <t>01711410190</t>
+  </si>
+  <si>
+    <t>01753838319</t>
+  </si>
+  <si>
+    <t>01712362234</t>
+  </si>
+  <si>
+    <t>01710140120</t>
+  </si>
+  <si>
+    <t>01773324451</t>
+  </si>
+  <si>
+    <t>01711907942</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,29 +209,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -248,7 +343,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -262,7 +398,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -276,7 +414,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -289,9 +429,6 @@
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -315,98 +452,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,464 +868,560 @@
   <dimension ref="B1:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3820</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="15">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3480</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="15">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1790</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2910</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="15">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2430</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1340</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="37">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="39">
+        <v>4550</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="15">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1150</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="15">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1490</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="15">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="8">
+        <v>980</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="15">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1980</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="15">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1440</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="15">
         <v>13</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="2:9" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="15">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="15">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="15">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="15">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="15">
+        <v>19</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B28" s="15">
+        <v>20</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="18">
+      <c r="H29" s="6"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="2:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="18">
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="18">
-        <v>3</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="18">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="18">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="18">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="18">
-        <v>7</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="18">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="18">
-        <v>9</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="18">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="18">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="18">
-        <v>12</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="18">
-        <v>13</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="18">
-        <v>14</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="2">
-        <v>15</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="2">
-        <v>16</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="2">
-        <v>17</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="2">
-        <v>18</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B27" s="2">
-        <v>19</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B28" s="2">
-        <v>20</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="2:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="21"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G37:H37"/>
+  <mergeCells count="8">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
   </mergeCells>
-  <conditionalFormatting sqref="C9:E11">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2022/Samsung/Others/Sure Shot_Incentive Format December'21.xlsx
+++ b/2022/Samsung/Others/Sure Shot_Incentive Format December'21.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="NOC" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>SL</t>
   </si>
@@ -164,6 +165,18 @@
   </si>
   <si>
     <t>01711907942</t>
+  </si>
+  <si>
+    <t>RASD000242</t>
+  </si>
+  <si>
+    <t>M/s Jhorna Mobile &amp; Photostate</t>
+  </si>
+  <si>
+    <t>Iffa Trading</t>
+  </si>
+  <si>
+    <t>01798334420</t>
   </si>
 </sst>
 </file>
@@ -426,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -481,8 +494,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -490,61 +524,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,18 +576,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -867,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +887,7 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="24" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
@@ -886,10 +897,10 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="9"/>
@@ -898,10 +909,10 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="5"/>
@@ -910,10 +921,10 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="5"/>
@@ -922,8 +933,8 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="5"/>
@@ -942,15 +953,15 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -984,7 +995,7 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="7"/>
@@ -1004,7 +1015,7 @@
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="7"/>
@@ -1024,7 +1035,7 @@
       <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="7"/>
@@ -1044,7 +1055,7 @@
       <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="7"/>
@@ -1064,7 +1075,7 @@
       <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="25" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="7"/>
@@ -1084,7 +1095,7 @@
       <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="7"/>
@@ -1098,20 +1109,20 @@
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37">
+      <c r="B15" s="28">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="30">
         <v>4550</v>
       </c>
       <c r="H15" s="19"/>
@@ -1124,7 +1135,7 @@
       <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="7"/>
@@ -1144,7 +1155,7 @@
       <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="7"/>
@@ -1164,7 +1175,7 @@
       <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="7"/>
@@ -1184,7 +1195,7 @@
       <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7"/>
@@ -1204,7 +1215,7 @@
       <c r="C20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="7"/>
@@ -1221,11 +1232,21 @@
       <c r="B21" s="15">
         <v>13</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2740</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="12"/>
     </row>
@@ -1234,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="34"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
@@ -1246,7 +1267,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="34"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
@@ -1258,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="34"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
@@ -1270,7 +1291,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
@@ -1282,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="34"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
@@ -1294,7 +1315,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="35"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="18"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
@@ -1306,7 +1327,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="35"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="18"/>
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
@@ -1316,11 +1337,12 @@
     <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="16"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="36"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="40" t="s">
-        <v>7</v>
+      <c r="G29" s="31">
+        <f>SUM(G9:G28)</f>
+        <v>30100</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="12"/>
@@ -1328,7 +1350,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="36"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
@@ -1338,7 +1360,7 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="16"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="36"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
@@ -1348,7 +1370,7 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="16"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="36"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
@@ -1358,7 +1380,7 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="36"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
@@ -1368,7 +1390,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="17"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="36"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
@@ -1378,7 +1400,7 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="36"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
@@ -1388,7 +1410,7 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="36"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
@@ -1396,18 +1418,18 @@
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="2:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45" t="s">
+      <c r="C37" s="40"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="46"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1424,4 +1446,575 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3820</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="15">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3480</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="15">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1790</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2910</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="15">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2430</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="15">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1340</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="28">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="30">
+        <v>4550</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="15">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1150</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="15">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1490</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="15">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="8">
+        <v>980</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="15">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1980</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="15">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1440</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="15">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2740</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="15">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="15">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="15">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="15">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="15">
+        <v>19</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B28" s="15">
+        <v>20</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="2:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>